--- a/VerveStacks_BGR_grids/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR_grids/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972E5049-638C-4D9D-BE9F-583AE035B6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEABA84-00D6-4E6D-AFD6-E107E71D7310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{4514F2CF-8EA9-419C-9076-7D21BBD41B6B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FB1DEC5A-E373-4955-9A58-294E75D9B6AB}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -286,16 +286,16 @@
     <t>e_w1256110252-220</t>
   </si>
   <si>
-    <t>ep_hydro_dam_way/1256110252-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_way/243752614-400</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_way/743367793-220</t>
-  </si>
-  <si>
-    <t>ep_hydro_dam_way/743374599-400_</t>
+    <t>ep_hydro_dam_w1256110252-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_w243752614-400</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_w743367793-220</t>
+  </si>
+  <si>
+    <t>ep_hydro_dam_w743374599-400_</t>
   </si>
   <si>
     <t>e_w743374599-400</t>
@@ -331,10 +331,34 @@
     <t>solar</t>
   </si>
   <si>
+    <t>elc_spv-BGR_0050</t>
+  </si>
+  <si>
     <t>elc_spv-BGR_0049</t>
   </si>
   <si>
-    <t>elc_spv-BGR_0050</t>
+    <t>elc_spv-BGR_0040</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0035</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0037</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0034</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0033</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0041</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0026</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0019</t>
   </si>
   <si>
     <t>elc_spv-BGR_0036</t>
@@ -343,147 +367,123 @@
     <t>elc_spv-BGR_0030</t>
   </si>
   <si>
-    <t>elc_spv-BGR_0033</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0041</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0035</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0040</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0026</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0034</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0037</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0019</t>
+    <t>elc_spv-BGR_0052</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0012</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0029</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0043</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0038</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0022</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0020</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0023</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0048</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0025</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0028</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0042</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0021</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0045</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0047</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0051</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0024</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0046</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0018</t>
   </si>
   <si>
     <t>elc_spv-BGR_0056</t>
   </si>
   <si>
-    <t>elc_spv-BGR_0025</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0028</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0048</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0052</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0012</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0020</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0023</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0024</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0046</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0018</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0043</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0038</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0022</t>
-  </si>
-  <si>
     <t>elc_spv-BGR_0010</t>
   </si>
   <si>
     <t>elc_spv-BGR_0031</t>
   </si>
   <si>
-    <t>elc_spv-BGR_0029</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0042</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0021</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0045</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0047</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0051</t>
-  </si>
-  <si>
     <t>elc_spv-BGR_0002</t>
   </si>
   <si>
+    <t>elc_spv-BGR_0007</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0016</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0015</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0006</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0014</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0005</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0027</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0011</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0055</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0008</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0032</t>
+  </si>
+  <si>
     <t>elc_spv-BGR_0000</t>
   </si>
   <si>
-    <t>elc_spv-BGR_0032</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0014</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0027</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0011</t>
+    <t>elc_spv-BGR_0054</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0017</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR_0053</t>
   </si>
   <si>
     <t>elc_spv-BGR_0013</t>
   </si>
   <si>
-    <t>elc_spv-BGR_0053</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0017</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0005</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0055</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0008</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0054</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0015</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0016</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0007</t>
-  </si>
-  <si>
-    <t>elc_spv-BGR_0006</t>
-  </si>
-  <si>
     <t>ep_solar_pv_G100000807270</t>
   </si>
   <si>
@@ -511,13 +511,13 @@
     <t>elc_won-BGR_0055</t>
   </si>
   <si>
+    <t>elc_won-BGR_0054</t>
+  </si>
+  <si>
+    <t>elc_won-BGR_0050</t>
+  </si>
+  <si>
     <t>elc_won-BGR_0053</t>
-  </si>
-  <si>
-    <t>elc_won-BGR_0054</t>
-  </si>
-  <si>
-    <t>elc_won-BGR_0050</t>
   </si>
   <si>
     <t>elc_won-BGR_0056</t>
@@ -1148,7 +1148,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C92D6B-4587-53C6-F717-96C5B32A49E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E26C4A-D39A-C376-E9F3-EB19905B16AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1203,7 +1203,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078B2B43-909F-5599-0F9A-E35785105B28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2E98D4-8C06-E7A1-48F7-4497ECE3C702}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,7 +1258,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FA8B9D5-CBEF-049F-CCC3-355194805433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{620DFA02-FF18-B7A5-2330-4507D6BCAD8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,7 +1609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E137B1-EB94-47CF-8C02-0F44F89850EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183E1795-0CD3-48E7-A576-F9D4DD450C76}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4594,7 +4594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9008DD-B49D-4012-BEA5-4DF338699856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE17F352-5E97-4A4D-B262-A1CE4512AF59}">
   <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6882,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2564799-C2F7-4617-BAA3-9F6207A80BE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A073E1C1-9981-49BD-93C6-F5A1B06AD4B0}">
   <dimension ref="A1:T220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10583,7 +10583,7 @@
         <v>2011</v>
       </c>
       <c r="E76" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>5.9000000000000007E-3</v>
       </c>
       <c r="F76" s="3">
         <v>1</v>
@@ -10615,7 +10615,7 @@
         <v>2011</v>
       </c>
       <c r="E77" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>5.9000000000000007E-3</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>2011</v>
       </c>
       <c r="E78" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -10679,7 +10679,7 @@
         <v>2011</v>
       </c>
       <c r="E79" s="4">
-        <v>5.9000000000000007E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -10711,7 +10711,7 @@
         <v>2011</v>
       </c>
       <c r="E80" s="3">
-        <v>5.9000000000000007E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F80" s="3">
         <v>1</v>
@@ -10807,7 +10807,7 @@
         <v>2011</v>
       </c>
       <c r="E83" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="F83" s="4">
         <v>1</v>
@@ -10871,7 +10871,7 @@
         <v>2011</v>
       </c>
       <c r="E85" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F85" s="4">
         <v>1</v>
@@ -10903,13 +10903,13 @@
         <v>2012</v>
       </c>
       <c r="E86" s="3">
-        <v>2.1100000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F86" s="3">
         <v>1</v>
       </c>
       <c r="G86" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H86" s="3">
         <v>21.450000000000003</v>
@@ -10929,13 +10929,13 @@
         <v>96</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D87" s="4">
         <v>2012</v>
       </c>
       <c r="E87" s="4">
-        <v>5.0999999999999995E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F87" s="4">
         <v>1</v>
@@ -10961,22 +10961,22 @@
         <v>96</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D88" s="3">
         <v>2012</v>
       </c>
       <c r="E88" s="3">
-        <v>0.06</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="F88" s="3">
         <v>1</v>
       </c>
       <c r="G88" s="3">
-        <v>1138.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H88" s="3">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I88" s="3">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>96</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D89" s="4">
         <v>2012</v>
       </c>
       <c r="E89" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="F89" s="4">
         <v>1</v>
@@ -11025,22 +11025,22 @@
         <v>96</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" s="3">
         <v>2012</v>
       </c>
       <c r="E90" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F90" s="3">
         <v>1</v>
       </c>
       <c r="G90" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H90" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I90" s="3">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>96</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>2012</v>
       </c>
       <c r="E91" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F91" s="4">
         <v>1</v>
@@ -11089,13 +11089,13 @@
         <v>96</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D92" s="3">
         <v>2012</v>
       </c>
       <c r="E92" s="3">
-        <v>1.09E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F92" s="3">
         <v>1</v>
@@ -11121,19 +11121,19 @@
         <v>96</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D93" s="4">
         <v>2012</v>
       </c>
       <c r="E93" s="4">
-        <v>2.1100000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
       </c>
       <c r="G93" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H93" s="4">
         <v>21.450000000000003</v>
@@ -11153,22 +11153,22 @@
         <v>96</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D94" s="3">
         <v>2012</v>
       </c>
       <c r="E94" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F94" s="3">
         <v>1</v>
       </c>
       <c r="G94" s="3">
-        <v>1336.5</v>
+        <v>1173.6290322580646</v>
       </c>
       <c r="H94" s="3">
-        <v>21.450000000000003</v>
+        <v>18.735483870967744</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -11185,22 +11185,22 @@
         <v>96</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D95" s="4">
         <v>2012</v>
       </c>
       <c r="E95" s="4">
-        <v>5.0999999999999997E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F95" s="4">
         <v>1</v>
       </c>
       <c r="G95" s="4">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H95" s="4">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I95" s="4">
         <v>0</v>
@@ -11217,22 +11217,22 @@
         <v>96</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D96" s="3">
         <v>2012</v>
       </c>
       <c r="E96" s="3">
-        <v>5.0999999999999995E-3</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F96" s="3">
         <v>1</v>
       </c>
       <c r="G96" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H96" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>2012</v>
       </c>
       <c r="E97" s="4">
-        <v>5.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F97" s="4">
         <v>1</v>
@@ -11281,13 +11281,13 @@
         <v>96</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D98" s="3">
         <v>2012</v>
       </c>
       <c r="E98" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F98" s="3">
         <v>1</v>
@@ -11296,7 +11296,7 @@
         <v>1336.5</v>
       </c>
       <c r="H98" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I98" s="3">
         <v>0</v>
@@ -11313,13 +11313,13 @@
         <v>96</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D99" s="4">
         <v>2012</v>
       </c>
       <c r="E99" s="4">
-        <v>1.09E-2</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="F99" s="4">
         <v>1</v>
@@ -11345,22 +11345,22 @@
         <v>96</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D100" s="3">
         <v>2012</v>
       </c>
       <c r="E100" s="3">
-        <v>3.0100000000000002E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F100" s="3">
         <v>1</v>
       </c>
       <c r="G100" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H100" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -11377,7 +11377,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D101" s="4">
         <v>2012</v>
@@ -11409,13 +11409,13 @@
         <v>96</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D102" s="3">
         <v>2012</v>
       </c>
       <c r="E102" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F102" s="3">
         <v>1</v>
@@ -11441,13 +11441,13 @@
         <v>96</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D103" s="4">
         <v>2012</v>
       </c>
       <c r="E103" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F103" s="4">
         <v>1</v>
@@ -11473,13 +11473,13 @@
         <v>96</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D104" s="3">
         <v>2012</v>
       </c>
       <c r="E104" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F104" s="3">
         <v>1</v>
@@ -11505,22 +11505,22 @@
         <v>96</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D105" s="4">
         <v>2012</v>
       </c>
       <c r="E105" s="4">
-        <v>6.2E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F105" s="4">
         <v>1</v>
       </c>
       <c r="G105" s="4">
-        <v>1173.6290322580646</v>
+        <v>1336.5</v>
       </c>
       <c r="H105" s="4">
-        <v>18.735483870967744</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I105" s="4">
         <v>0</v>
@@ -11537,22 +11537,22 @@
         <v>96</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D106" s="3">
         <v>2012</v>
       </c>
       <c r="E106" s="3">
-        <v>0.08</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="F106" s="3">
         <v>1</v>
       </c>
       <c r="G106" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H106" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I106" s="3">
         <v>0</v>
@@ -11569,13 +11569,13 @@
         <v>96</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D107" s="4">
         <v>2012</v>
       </c>
       <c r="E107" s="4">
-        <v>2.29E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F107" s="4">
         <v>1</v>
@@ -11601,13 +11601,13 @@
         <v>96</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D108" s="3">
         <v>2012</v>
       </c>
       <c r="E108" s="3">
-        <v>5.4999999999999997E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F108" s="3">
         <v>1</v>
@@ -11633,13 +11633,13 @@
         <v>96</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D109" s="4">
         <v>2012</v>
       </c>
       <c r="E109" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F109" s="4">
         <v>1</v>
@@ -11665,22 +11665,22 @@
         <v>96</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D110" s="3">
         <v>2012</v>
       </c>
       <c r="E110" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>3.0100000000000002E-2</v>
       </c>
       <c r="F110" s="3">
         <v>1</v>
       </c>
       <c r="G110" s="3">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H110" s="3">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I110" s="3">
         <v>0</v>
@@ -11697,13 +11697,13 @@
         <v>96</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D111" s="4">
         <v>2012</v>
       </c>
       <c r="E111" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="F111" s="4">
         <v>1</v>
@@ -11729,19 +11729,19 @@
         <v>96</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D112" s="3">
         <v>2012</v>
       </c>
       <c r="E112" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="F112" s="3">
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H112" s="3">
         <v>21.450000000000003</v>
@@ -11761,13 +11761,13 @@
         <v>96</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D113" s="4">
         <v>2012</v>
       </c>
       <c r="E113" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="F113" s="4">
         <v>1</v>
@@ -11793,13 +11793,13 @@
         <v>96</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D114" s="3">
         <v>2012</v>
       </c>
       <c r="E114" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F114" s="3">
         <v>1</v>
@@ -11825,19 +11825,19 @@
         <v>96</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D115" s="4">
         <v>2012</v>
       </c>
       <c r="E115" s="4">
-        <v>2.1100000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F115" s="4">
         <v>1</v>
       </c>
       <c r="G115" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H115" s="4">
         <v>21.450000000000003</v>
@@ -11857,13 +11857,13 @@
         <v>96</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D116" s="3">
         <v>2013</v>
       </c>
       <c r="E116" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="F116" s="3">
         <v>1</v>
@@ -11889,13 +11889,13 @@
         <v>96</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D117" s="4">
         <v>2013</v>
       </c>
       <c r="E117" s="4">
-        <v>1.6199999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F117" s="4">
         <v>1</v>
@@ -11921,22 +11921,22 @@
         <v>96</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D118" s="3">
         <v>2015</v>
       </c>
       <c r="E118" s="3">
-        <v>8.1000000000000003E-2</v>
+        <v>4.200000000000001E-2</v>
       </c>
       <c r="F118" s="3">
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H118" s="3">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I118" s="3">
         <v>0</v>
@@ -11953,13 +11953,13 @@
         <v>96</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D119" s="4">
         <v>2015</v>
       </c>
       <c r="E119" s="4">
-        <v>4.6100000000000002E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="F119" s="4">
         <v>1</v>
@@ -11968,7 +11968,7 @@
         <v>1336.5</v>
       </c>
       <c r="H119" s="4">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I119" s="4">
         <v>0</v>
@@ -11985,13 +11985,13 @@
         <v>96</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D120" s="3">
         <v>2015</v>
       </c>
       <c r="E120" s="3">
-        <v>2.0099999999999996E-2</v>
+        <v>2.1900000000000003E-2</v>
       </c>
       <c r="F120" s="3">
         <v>1</v>
@@ -12000,7 +12000,7 @@
         <v>1336.5</v>
       </c>
       <c r="H120" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I120" s="3">
         <v>0</v>
@@ -12017,13 +12017,13 @@
         <v>96</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D121" s="4">
         <v>2015</v>
       </c>
       <c r="E121" s="4">
-        <v>2.1900000000000003E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F121" s="4">
         <v>1</v>
@@ -12032,7 +12032,7 @@
         <v>1336.5</v>
       </c>
       <c r="H121" s="4">
-        <v>21.45</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I121" s="4">
         <v>0</v>
@@ -12049,13 +12049,13 @@
         <v>96</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D122" s="3">
         <v>2015</v>
       </c>
       <c r="E122" s="3">
-        <v>2.3899999999999998E-2</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="F122" s="3">
         <v>1</v>
@@ -12064,7 +12064,7 @@
         <v>1336.5</v>
       </c>
       <c r="H122" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I122" s="3">
         <v>0</v>
@@ -12081,22 +12081,22 @@
         <v>96</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D123" s="4">
         <v>2015</v>
       </c>
       <c r="E123" s="4">
-        <v>7.4999999999999983E-2</v>
+        <v>1.9500000000000003E-2</v>
       </c>
       <c r="F123" s="4">
         <v>1</v>
       </c>
       <c r="G123" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H123" s="4">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I123" s="4">
         <v>0</v>
@@ -12113,13 +12113,13 @@
         <v>96</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D124" s="3">
         <v>2015</v>
       </c>
       <c r="E124" s="3">
-        <v>1.9500000000000003E-2</v>
+        <v>2.1900000000000003E-2</v>
       </c>
       <c r="F124" s="3">
         <v>1</v>
@@ -12145,13 +12145,13 @@
         <v>96</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D125" s="4">
         <v>2015</v>
       </c>
       <c r="E125" s="4">
-        <v>0.10869999999999999</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="F125" s="4">
         <v>1</v>
@@ -12160,7 +12160,7 @@
         <v>1336.5</v>
       </c>
       <c r="H125" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I125" s="4">
         <v>0</v>
@@ -12177,13 +12177,13 @@
         <v>96</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D126" s="3">
         <v>2015</v>
       </c>
       <c r="E126" s="3">
-        <v>4.200000000000001E-2</v>
+        <v>2.0099999999999996E-2</v>
       </c>
       <c r="F126" s="3">
         <v>1</v>
@@ -12192,7 +12192,7 @@
         <v>1336.5</v>
       </c>
       <c r="H126" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I126" s="3">
         <v>0</v>
@@ -12209,13 +12209,13 @@
         <v>96</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D127" s="4">
         <v>2015</v>
       </c>
       <c r="E127" s="4">
-        <v>5.0999999999999995E-3</v>
+        <v>4.200000000000001E-2</v>
       </c>
       <c r="F127" s="4">
         <v>1</v>
@@ -12224,7 +12224,7 @@
         <v>1336.5</v>
       </c>
       <c r="H127" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I127" s="4">
         <v>0</v>
@@ -12241,13 +12241,13 @@
         <v>96</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="D128" s="3">
         <v>2015</v>
       </c>
       <c r="E128" s="3">
-        <v>5.3900000000000003E-2</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -12273,13 +12273,13 @@
         <v>96</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D129" s="4">
         <v>2015</v>
       </c>
       <c r="E129" s="4">
-        <v>3.7000000000000002E-3</v>
+        <v>6.3000000000000009E-3</v>
       </c>
       <c r="F129" s="4">
         <v>1</v>
@@ -12288,7 +12288,7 @@
         <v>1336.5</v>
       </c>
       <c r="H129" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I129" s="4">
         <v>0</v>
@@ -12305,19 +12305,19 @@
         <v>96</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D130" s="3">
         <v>2015</v>
       </c>
       <c r="E130" s="3">
-        <v>4.8000000000000008E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
       </c>
       <c r="G130" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H130" s="3">
         <v>21.45</v>
@@ -12337,22 +12337,22 @@
         <v>96</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D131" s="4">
         <v>2015</v>
       </c>
       <c r="E131" s="4">
-        <v>2.07E-2</v>
+        <v>6.9599999999999981E-2</v>
       </c>
       <c r="F131" s="4">
         <v>1</v>
       </c>
       <c r="G131" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H131" s="4">
-        <v>21.450000000000003</v>
+        <v>21.45000000000001</v>
       </c>
       <c r="I131" s="4">
         <v>0</v>
@@ -12369,19 +12369,19 @@
         <v>96</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D132" s="3">
         <v>2015</v>
       </c>
       <c r="E132" s="3">
-        <v>2.5499999999999998E-2</v>
+        <v>3.5900000000000008E-2</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>1336.5</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H132" s="3">
         <v>21.45</v>
@@ -12401,22 +12401,22 @@
         <v>96</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D133" s="4">
         <v>2015</v>
       </c>
       <c r="E133" s="4">
-        <v>3.9100000000000003E-2</v>
+        <v>0.1148</v>
       </c>
       <c r="F133" s="4">
         <v>1</v>
       </c>
       <c r="G133" s="4">
-        <v>1336.5</v>
+        <v>1336.4999999999995</v>
       </c>
       <c r="H133" s="4">
-        <v>21.450000000000003</v>
+        <v>21.449999999999996</v>
       </c>
       <c r="I133" s="4">
         <v>0</v>
@@ -12433,19 +12433,19 @@
         <v>96</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D134" s="3">
         <v>2015</v>
       </c>
       <c r="E134" s="3">
-        <v>2.2100000000000002E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="F134" s="3">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H134" s="3">
         <v>21.450000000000003</v>
@@ -12465,22 +12465,22 @@
         <v>96</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="D135" s="4">
         <v>2015</v>
       </c>
       <c r="E135" s="4">
-        <v>3.4700000000000002E-2</v>
+        <v>6.0599999999999987E-2</v>
       </c>
       <c r="F135" s="4">
         <v>1</v>
       </c>
       <c r="G135" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H135" s="4">
-        <v>21.45</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I135" s="4">
         <v>0</v>
@@ -12497,19 +12497,19 @@
         <v>96</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D136" s="3">
         <v>2015</v>
       </c>
       <c r="E136" s="3">
-        <v>1.5300000000000001E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="F136" s="3">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H136" s="3">
         <v>21.450000000000003</v>
@@ -12529,13 +12529,13 @@
         <v>96</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="D137" s="4">
         <v>2015</v>
       </c>
       <c r="E137" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F137" s="4">
         <v>1</v>
@@ -12561,13 +12561,13 @@
         <v>96</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138" s="3">
         <v>2015</v>
       </c>
       <c r="E138" s="3">
-        <v>6.4999999999999997E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F138" s="3">
         <v>1</v>
@@ -12593,7 +12593,7 @@
         <v>96</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D139" s="4">
         <v>2015</v>
@@ -12625,13 +12625,13 @@
         <v>96</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D140" s="3">
         <v>2015</v>
       </c>
       <c r="E140" s="3">
-        <v>4.3999999999999994E-3</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -12640,7 +12640,7 @@
         <v>1336.5</v>
       </c>
       <c r="H140" s="3">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I140" s="3">
         <v>0</v>
@@ -12657,19 +12657,19 @@
         <v>96</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D141" s="4">
         <v>2015</v>
       </c>
       <c r="E141" s="4">
-        <v>2.63E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="F141" s="4">
         <v>1</v>
       </c>
       <c r="G141" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H141" s="4">
         <v>21.450000000000003</v>
@@ -12689,22 +12689,22 @@
         <v>96</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D142" s="3">
         <v>2015</v>
       </c>
       <c r="E142" s="3">
-        <v>6.0599999999999987E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
       </c>
       <c r="G142" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H142" s="3">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I142" s="3">
         <v>0</v>
@@ -12721,19 +12721,19 @@
         <v>96</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D143" s="4">
         <v>2015</v>
       </c>
       <c r="E143" s="4">
-        <v>4.58E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="F143" s="4">
         <v>1</v>
       </c>
       <c r="G143" s="4">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H143" s="4">
         <v>21.450000000000003</v>
@@ -12753,22 +12753,22 @@
         <v>96</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D144" s="3">
         <v>2015</v>
       </c>
       <c r="E144" s="3">
-        <v>0.1148</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
       </c>
       <c r="G144" s="3">
-        <v>1336.4999999999995</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H144" s="3">
-        <v>21.449999999999996</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I144" s="3">
         <v>0</v>
@@ -12785,13 +12785,13 @@
         <v>96</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D145" s="4">
         <v>2015</v>
       </c>
       <c r="E145" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>2.0099999999999996E-2</v>
       </c>
       <c r="F145" s="4">
         <v>1</v>
@@ -12817,22 +12817,22 @@
         <v>96</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D146" s="3">
         <v>2015</v>
       </c>
       <c r="E146" s="3">
-        <v>8.2999999999999984E-3</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
       </c>
       <c r="G146" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.4999999999998</v>
       </c>
       <c r="H146" s="3">
-        <v>21.450000000000006</v>
+        <v>21.45</v>
       </c>
       <c r="I146" s="3">
         <v>0</v>
@@ -12849,13 +12849,13 @@
         <v>96</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D147" s="4">
         <v>2015</v>
       </c>
       <c r="E147" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>2.3899999999999998E-2</v>
       </c>
       <c r="F147" s="4">
         <v>1</v>
@@ -12864,7 +12864,7 @@
         <v>1336.5</v>
       </c>
       <c r="H147" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I147" s="4">
         <v>0</v>
@@ -12881,13 +12881,13 @@
         <v>96</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D148" s="3">
         <v>2015</v>
       </c>
       <c r="E148" s="3">
-        <v>2.2100000000000002E-2</v>
+        <v>4.3999999999999994E-3</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -12896,7 +12896,7 @@
         <v>1336.5</v>
       </c>
       <c r="H148" s="3">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I148" s="3">
         <v>0</v>
@@ -12913,13 +12913,13 @@
         <v>96</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D149" s="4">
         <v>2015</v>
       </c>
       <c r="E149" s="4">
-        <v>7.6999999999999994E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F149" s="4">
         <v>1</v>
@@ -12928,7 +12928,7 @@
         <v>1336.5</v>
       </c>
       <c r="H149" s="4">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I149" s="4">
         <v>0</v>
@@ -12945,22 +12945,22 @@
         <v>96</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D150" s="3">
         <v>2015</v>
       </c>
       <c r="E150" s="3">
-        <v>6.3000000000000009E-3</v>
+        <v>8.2999999999999984E-3</v>
       </c>
       <c r="F150" s="3">
         <v>1</v>
       </c>
       <c r="G150" s="3">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H150" s="3">
-        <v>21.45</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I150" s="3">
         <v>0</v>
@@ -12977,22 +12977,22 @@
         <v>96</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="D151" s="4">
         <v>2015</v>
       </c>
       <c r="E151" s="4">
-        <v>2.7400000000000001E-2</v>
+        <v>0.10869999999999999</v>
       </c>
       <c r="F151" s="4">
         <v>1</v>
       </c>
       <c r="G151" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H151" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I151" s="4">
         <v>0</v>
@@ -13009,7 +13009,7 @@
         <v>96</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D152" s="3">
         <v>2015</v>
@@ -13041,22 +13041,22 @@
         <v>96</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D153" s="4">
         <v>2015</v>
       </c>
       <c r="E153" s="4">
-        <v>5.0999999999999995E-3</v>
+        <v>7.4999999999999983E-2</v>
       </c>
       <c r="F153" s="4">
         <v>1</v>
       </c>
       <c r="G153" s="4">
-        <v>1336.5</v>
+        <v>1336.5000000000002</v>
       </c>
       <c r="H153" s="4">
-        <v>21.450000000000003</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I153" s="4">
         <v>0</v>
@@ -13073,13 +13073,13 @@
         <v>96</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D154" s="3">
         <v>2015</v>
       </c>
       <c r="E154" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.3899999999999998E-2</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -13105,7 +13105,7 @@
         <v>96</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D155" s="4">
         <v>2015</v>
@@ -13137,13 +13137,13 @@
         <v>96</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D156" s="3">
         <v>2015</v>
       </c>
       <c r="E156" s="3">
-        <v>4.0600000000000004E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -13169,13 +13169,13 @@
         <v>96</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D157" s="4">
         <v>2015</v>
       </c>
       <c r="E157" s="4">
-        <v>1.9500000000000003E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="F157" s="4">
         <v>1</v>
@@ -13184,7 +13184,7 @@
         <v>1336.5</v>
       </c>
       <c r="H157" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I157" s="4">
         <v>0</v>
@@ -13201,13 +13201,13 @@
         <v>96</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D158" s="3">
         <v>2015</v>
       </c>
       <c r="E158" s="3">
-        <v>2.5499999999999998E-2</v>
+        <v>7.6999999999999994E-3</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -13216,7 +13216,7 @@
         <v>1336.5</v>
       </c>
       <c r="H158" s="3">
-        <v>21.45</v>
+        <v>21.450000000000006</v>
       </c>
       <c r="I158" s="3">
         <v>0</v>
@@ -13233,13 +13233,13 @@
         <v>96</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D159" s="4">
         <v>2015</v>
       </c>
       <c r="E159" s="4">
-        <v>2.06E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="F159" s="4">
         <v>1</v>
@@ -13265,13 +13265,13 @@
         <v>96</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D160" s="3">
         <v>2015</v>
       </c>
       <c r="E160" s="3">
-        <v>2.3899999999999998E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -13280,7 +13280,7 @@
         <v>1336.5</v>
       </c>
       <c r="H160" s="3">
-        <v>21.450000000000006</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I160" s="3">
         <v>0</v>
@@ -13297,22 +13297,22 @@
         <v>96</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="D161" s="4">
         <v>2015</v>
       </c>
       <c r="E161" s="4">
-        <v>3.5900000000000008E-2</v>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="F161" s="4">
         <v>1</v>
       </c>
       <c r="G161" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H161" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I161" s="4">
         <v>0</v>
@@ -13329,22 +13329,22 @@
         <v>96</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D162" s="3">
         <v>2015</v>
       </c>
       <c r="E162" s="3">
-        <v>6.9599999999999981E-2</v>
+        <v>4.0600000000000004E-2</v>
       </c>
       <c r="F162" s="3">
         <v>1</v>
       </c>
       <c r="G162" s="3">
-        <v>1336.5000000000002</v>
+        <v>1336.5</v>
       </c>
       <c r="H162" s="3">
-        <v>21.45000000000001</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I162" s="3">
         <v>0</v>
@@ -13361,13 +13361,13 @@
         <v>96</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D163" s="4">
         <v>2015</v>
       </c>
       <c r="E163" s="4">
-        <v>4.200000000000001E-2</v>
+        <v>1.9500000000000003E-2</v>
       </c>
       <c r="F163" s="4">
         <v>1</v>
@@ -13393,13 +13393,13 @@
         <v>96</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D164" s="3">
         <v>2015</v>
       </c>
       <c r="E164" s="3">
-        <v>2.0099999999999996E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="F164" s="3">
         <v>1</v>
@@ -13408,7 +13408,7 @@
         <v>1336.5</v>
       </c>
       <c r="H164" s="3">
-        <v>21.450000000000003</v>
+        <v>21.45</v>
       </c>
       <c r="I164" s="3">
         <v>0</v>
@@ -13425,22 +13425,22 @@
         <v>96</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D165" s="4">
         <v>2015</v>
       </c>
       <c r="E165" s="4">
-        <v>2.7400000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="F165" s="4">
         <v>1</v>
       </c>
       <c r="G165" s="4">
-        <v>1336.4999999999998</v>
+        <v>1336.5</v>
       </c>
       <c r="H165" s="4">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I165" s="4">
         <v>0</v>
@@ -13457,13 +13457,13 @@
         <v>96</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="D166" s="3">
         <v>2015</v>
       </c>
       <c r="E166" s="3">
-        <v>2.1900000000000003E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="F166" s="3">
         <v>1</v>
@@ -13472,7 +13472,7 @@
         <v>1336.5</v>
       </c>
       <c r="H166" s="3">
-        <v>21.45</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I166" s="3">
         <v>0</v>
@@ -13521,13 +13521,13 @@
         <v>96</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="D168" s="3">
         <v>2021</v>
       </c>
       <c r="E168" s="3">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -13553,22 +13553,22 @@
         <v>96</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D169" s="4">
         <v>2021</v>
       </c>
       <c r="E169" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.114</v>
       </c>
       <c r="F169" s="4">
         <v>1</v>
       </c>
       <c r="G169" s="4">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H169" s="4">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I169" s="4">
         <v>0</v>
@@ -13585,22 +13585,22 @@
         <v>96</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D170" s="3">
         <v>2021</v>
       </c>
       <c r="E170" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F170" s="3">
         <v>1</v>
       </c>
       <c r="G170" s="3">
-        <v>1162.8692307692309</v>
+        <v>1336.5</v>
       </c>
       <c r="H170" s="3">
-        <v>18.556153846153848</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I170" s="3">
         <v>0</v>
@@ -13617,22 +13617,22 @@
         <v>96</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D171" s="4">
         <v>2021</v>
       </c>
       <c r="E171" s="4">
-        <v>0.114</v>
+        <v>0.01</v>
       </c>
       <c r="F171" s="4">
         <v>1</v>
       </c>
       <c r="G171" s="4">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H171" s="4">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I171" s="4">
         <v>0</v>
@@ -13649,22 +13649,22 @@
         <v>96</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D172" s="3">
         <v>2021</v>
       </c>
       <c r="E172" s="3">
-        <v>0.01</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F172" s="3">
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>1336.5</v>
+        <v>1162.8692307692309</v>
       </c>
       <c r="H172" s="3">
-        <v>21.450000000000003</v>
+        <v>18.556153846153848</v>
       </c>
       <c r="I172" s="3">
         <v>0</v>
@@ -13681,13 +13681,13 @@
         <v>96</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D173" s="4">
         <v>2021</v>
       </c>
       <c r="E173" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F173" s="4">
         <v>1</v>
@@ -13713,13 +13713,13 @@
         <v>96</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D174" s="3">
         <v>2022</v>
       </c>
       <c r="E174" s="3">
-        <v>9.2999999999999999E-2</v>
+        <v>0.186</v>
       </c>
       <c r="F174" s="3">
         <v>1</v>
@@ -13745,13 +13745,13 @@
         <v>96</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D175" s="4">
         <v>2022</v>
       </c>
       <c r="E175" s="4">
-        <v>0.19800000000000001</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F175" s="4">
         <v>1</v>
@@ -13777,22 +13777,22 @@
         <v>96</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D176" s="3">
         <v>2022</v>
       </c>
       <c r="E176" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F176" s="3">
         <v>1</v>
       </c>
       <c r="G176" s="3">
-        <v>1336.5</v>
+        <v>1138.5</v>
       </c>
       <c r="H176" s="3">
-        <v>21.450000000000003</v>
+        <v>18.150000000000002</v>
       </c>
       <c r="I176" s="3">
         <v>0</v>
@@ -13809,22 +13809,22 @@
         <v>96</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D177" s="4">
         <v>2022</v>
       </c>
       <c r="E177" s="4">
-        <v>0.186</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F177" s="4">
         <v>1</v>
       </c>
       <c r="G177" s="4">
-        <v>1138.5</v>
+        <v>1336.5</v>
       </c>
       <c r="H177" s="4">
-        <v>18.150000000000002</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I177" s="4">
         <v>0</v>
@@ -13841,22 +13841,22 @@
         <v>96</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D178" s="3">
         <v>2024</v>
       </c>
       <c r="E178" s="3">
-        <v>0.42599999999999999</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F178" s="3">
         <v>1</v>
       </c>
       <c r="G178" s="3">
-        <v>1208.2183098591549</v>
+        <v>1336.5</v>
       </c>
       <c r="H178" s="3">
-        <v>19.311971830985918</v>
+        <v>21.450000000000003</v>
       </c>
       <c r="I178" s="3">
         <v>0</v>
@@ -13873,22 +13873,22 @@
         <v>96</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D179" s="4">
         <v>2024</v>
       </c>
       <c r="E179" s="4">
-        <v>3.3000000000000002E-2</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="F179" s="4">
         <v>1</v>
       </c>
       <c r="G179" s="4">
-        <v>1336.5</v>
+        <v>1208.2183098591549</v>
       </c>
       <c r="H179" s="4">
-        <v>21.450000000000003</v>
+        <v>19.311971830985918</v>
       </c>
       <c r="I179" s="4">
         <v>0</v>
@@ -13905,7 +13905,7 @@
         <v>96</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D180" s="3">
         <v>2024</v>
@@ -14033,7 +14033,7 @@
         <v>96</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D184" s="3">
         <v>2023</v>
@@ -14129,7 +14129,7 @@
         <v>96</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D187" s="4">
         <v>2024</v>
@@ -14353,7 +14353,7 @@
         <v>155</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D194" s="3">
         <v>2009</v>
@@ -14385,7 +14385,7 @@
         <v>155</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D195" s="4">
         <v>2009</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D196" s="3">
         <v>2009</v>
@@ -14449,7 +14449,7 @@
         <v>155</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D197" s="4">
         <v>2010</v>
@@ -14545,13 +14545,13 @@
         <v>155</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D200" s="3">
         <v>2010</v>
       </c>
       <c r="E200" s="3">
-        <v>0.224</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F200" s="3">
         <v>1</v>
@@ -14560,7 +14560,7 @@
         <v>2376</v>
       </c>
       <c r="H200" s="3">
-        <v>57.199999999999996</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I200" s="3">
         <v>2.52</v>
@@ -14577,7 +14577,7 @@
         <v>155</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D201" s="4">
         <v>2010</v>
@@ -14609,13 +14609,13 @@
         <v>155</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D202" s="3">
         <v>2010</v>
       </c>
       <c r="E202" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F202" s="3">
         <v>1</v>
@@ -14624,7 +14624,7 @@
         <v>2376</v>
       </c>
       <c r="H202" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I202" s="3">
         <v>2.52</v>
@@ -14641,13 +14641,13 @@
         <v>155</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D203" s="4">
         <v>2010</v>
       </c>
       <c r="E203" s="4">
-        <v>0.18099999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -14656,7 +14656,7 @@
         <v>2376</v>
       </c>
       <c r="H203" s="4">
-        <v>57.2</v>
+        <v>57.199999999999996</v>
       </c>
       <c r="I203" s="4">
         <v>2.52</v>
@@ -14673,25 +14673,25 @@
         <v>155</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D204" s="3">
         <v>2011</v>
       </c>
       <c r="E204" s="3">
-        <v>0.04</v>
+        <v>0.122</v>
       </c>
       <c r="F204" s="3">
         <v>1</v>
       </c>
       <c r="G204" s="3">
-        <v>2376</v>
+        <v>2202.8852459016393</v>
       </c>
       <c r="H204" s="3">
-        <v>57.2</v>
+        <v>52.872131147540991</v>
       </c>
       <c r="I204" s="3">
-        <v>2.52</v>
+        <v>2.4167213114754102</v>
       </c>
       <c r="J204" s="3">
         <v>44</v>
@@ -14705,25 +14705,25 @@
         <v>155</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D205" s="4">
         <v>2011</v>
       </c>
       <c r="E205" s="4">
-        <v>0.122</v>
+        <v>0.04</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
       </c>
       <c r="G205" s="4">
-        <v>2202.8852459016393</v>
+        <v>2376</v>
       </c>
       <c r="H205" s="4">
-        <v>52.872131147540991</v>
+        <v>57.2</v>
       </c>
       <c r="I205" s="4">
-        <v>2.4167213114754102</v>
+        <v>2.52</v>
       </c>
       <c r="J205" s="4">
         <v>44</v>
@@ -14737,13 +14737,13 @@
         <v>155</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D206" s="3">
         <v>2011</v>
       </c>
       <c r="E206" s="3">
-        <v>0.04</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F206" s="3">
         <v>1</v>
@@ -14769,13 +14769,13 @@
         <v>155</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D207" s="4">
         <v>2011</v>
       </c>
       <c r="E207" s="4">
-        <v>2.1999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
@@ -14801,13 +14801,13 @@
         <v>155</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D208" s="3">
         <v>2011</v>
       </c>
       <c r="E208" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F208" s="3">
         <v>1</v>
@@ -14833,13 +14833,13 @@
         <v>155</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D209" s="4">
         <v>2011</v>
       </c>
       <c r="E209" s="4">
-        <v>0.04</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F209" s="4">
         <v>1</v>
@@ -14865,13 +14865,13 @@
         <v>155</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D210" s="3">
         <v>2011</v>
       </c>
       <c r="E210" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F210" s="3">
         <v>1</v>
@@ -14897,13 +14897,13 @@
         <v>155</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D211" s="4">
         <v>2012</v>
       </c>
       <c r="E211" s="4">
-        <v>3.2000000000000001E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F211" s="4">
         <v>1</v>
@@ -14929,7 +14929,7 @@
         <v>155</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D212" s="3">
         <v>2012</v>
@@ -14961,13 +14961,13 @@
         <v>155</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D213" s="4">
         <v>2012</v>
       </c>
       <c r="E213" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F213" s="4">
         <v>1</v>
@@ -14976,7 +14976,7 @@
         <v>2376</v>
       </c>
       <c r="H213" s="4">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I213" s="4">
         <v>2.52</v>
@@ -14993,13 +14993,13 @@
         <v>155</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D214" s="3">
         <v>2012</v>
       </c>
       <c r="E214" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F214" s="3">
         <v>1</v>
@@ -15008,7 +15008,7 @@
         <v>2376</v>
       </c>
       <c r="H214" s="3">
-        <v>57.20000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="I214" s="3">
         <v>2.52</v>
@@ -15025,13 +15025,13 @@
         <v>155</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D215" s="4">
         <v>2012</v>
       </c>
       <c r="E215" s="4">
-        <v>1.4E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F215" s="4">
         <v>1</v>
@@ -15040,7 +15040,7 @@
         <v>2376</v>
       </c>
       <c r="H215" s="4">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I215" s="4">
         <v>2.52</v>
@@ -15057,13 +15057,13 @@
         <v>155</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D216" s="3">
         <v>2012</v>
       </c>
       <c r="E216" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F216" s="3">
         <v>1</v>
@@ -15072,7 +15072,7 @@
         <v>2376</v>
       </c>
       <c r="H216" s="3">
-        <v>57.2</v>
+        <v>57.20000000000001</v>
       </c>
       <c r="I216" s="3">
         <v>2.52</v>
@@ -15089,7 +15089,7 @@
         <v>155</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D217" s="4">
         <v>2010</v>
@@ -15121,7 +15121,7 @@
         <v>155</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D218" s="3">
         <v>2010</v>
@@ -15153,7 +15153,7 @@
         <v>155</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D219" s="4">
         <v>2010</v>
@@ -15185,7 +15185,7 @@
         <v>155</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D220" s="3">
         <v>2010</v>

--- a/VerveStacks_BGR_grids/vt_vervestacks_BGR_v1.xlsx
+++ b/VerveStacks_BGR_grids/vt_vervestacks_BGR_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7B0E3A-6D9A-4AEC-9D50-8A33414D5F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF7F85BF-DC53-438C-BB11-D3ACEE548756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8BDAA29B-C65C-47C3-B8DE-01B2B43CE96F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{78B8EDA6-9356-48EB-B0BF-F518DBBE959E}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -918,10 +918,10 @@
     <t>Varna power station_Unit 4, timepoint 2</t>
   </si>
   <si>
+    <t>Aggregated Plant - IRENA Gap - way/743374599-400_Missing Hydro Capacity</t>
+  </si>
+  <si>
     <t>Aggregated Plant - IRENA Gap - way/743367793-220_Missing Hydro Capacity</t>
-  </si>
-  <si>
-    <t>Aggregated Plant - IRENA Gap - way/743374599-400_Missing Hydro Capacity</t>
   </si>
   <si>
     <t>Belmeken hydroelectric plant_</t>
@@ -1583,7 +1583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C32D84-9902-4844-965C-9120A5C389AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC341E93-5BAD-4119-BFAE-E1E7D675F463}">
   <dimension ref="B9:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -4698,7 +4698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB61237C-0772-427E-A196-AEE75B71AB1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB32FAB8-70DD-4677-9648-7ABDBC9F3CDA}">
   <dimension ref="B9:T248"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
